--- a/public/product.xlsx
+++ b/public/product.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cannon/html/17sport/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\html\17sport\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="17440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="555" windowWidth="28800" windowHeight="17445" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,18 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>yahoo 編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>momo 編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>momo 品號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>國際條碼*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>尺寸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>售價</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,6 +58,22 @@
   </si>
   <si>
     <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>選項</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yahoo 編號*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>momo 編號*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>momo 品號*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -84,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -138,6 +135,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -409,54 +409,55 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="18">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/product.xlsx
+++ b/public/product.xlsx
@@ -65,15 +65,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yahoo 編號*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>momo 編號*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>momo 品號*</t>
+    <t>yahoo 商品序號*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>momo 商品編號*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>momo 單品編號*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,6 +413,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18">
       <c r="A1" t="s">
